--- a/November'21/07.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/07.11.2021/Daily Sales Info.....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="851" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="851" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="56">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Date:06.11.2021</t>
+  </si>
+  <si>
+    <t>Date:08.11.2021</t>
   </si>
 </sst>
 </file>
@@ -47241,7 +47244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51951,7 +51954,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54235,7 +54238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54464,8 +54467,8 @@
       <c r="B7" s="20">
         <v>1908446134</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>23</v>
+      <c r="C7" s="20">
+        <v>1028</v>
       </c>
       <c r="D7" s="21">
         <v>1028</v>
@@ -54514,8 +54517,8 @@
       <c r="B8" s="20">
         <v>1908446135</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>31</v>
+      <c r="C8" s="23">
+        <v>0</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
@@ -54560,8 +54563,8 @@
       <c r="B9" s="20">
         <v>1908446136</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>24</v>
+      <c r="C9" s="20">
+        <v>11924</v>
       </c>
       <c r="D9" s="29">
         <v>11924</v>
@@ -54610,8 +54613,8 @@
       <c r="B10" s="20">
         <v>1908446137</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
+      <c r="C10" s="20">
+        <v>514</v>
       </c>
       <c r="D10" s="29">
         <v>514</v>
@@ -54660,8 +54663,8 @@
       <c r="B11" s="20">
         <v>1908446138</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>26</v>
+      <c r="C11" s="31">
+        <v>5140</v>
       </c>
       <c r="D11" s="29">
         <v>5140</v>
@@ -54710,8 +54713,8 @@
       <c r="B12" s="20">
         <v>1908446139</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>27</v>
+      <c r="C12" s="20">
+        <v>7056</v>
       </c>
       <c r="D12" s="29">
         <v>7056</v>
@@ -54760,8 +54763,8 @@
       <c r="B13" s="20">
         <v>1908446140</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>41</v>
+      <c r="C13" s="20">
+        <v>26524</v>
       </c>
       <c r="D13" s="29">
         <v>26524</v>
@@ -54810,8 +54813,8 @@
       <c r="B14" s="20">
         <v>1908446141</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>43</v>
+      <c r="C14" s="20">
+        <v>0</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -54856,8 +54859,8 @@
       <c r="B15" s="20">
         <v>1908446142</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>28</v>
+      <c r="C15" s="33">
+        <v>0</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
@@ -54902,8 +54905,8 @@
       <c r="B16" s="20">
         <v>1908446143</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>29</v>
+      <c r="C16" s="20">
+        <v>13878</v>
       </c>
       <c r="D16" s="29">
         <v>13878</v>
@@ -54956,8 +54959,8 @@
       <c r="B17" s="20">
         <v>1908446144</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>30</v>
+      <c r="C17" s="33">
+        <v>13056</v>
       </c>
       <c r="D17" s="29">
         <v>13056</v>
@@ -55006,8 +55009,8 @@
       <c r="B18" s="20">
         <v>1908446145</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>47</v>
+      <c r="C18" s="31">
+        <v>0</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -55052,8 +55055,8 @@
       <c r="B19" s="20">
         <v>1908446146</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>42</v>
+      <c r="C19" s="20">
+        <v>1028</v>
       </c>
       <c r="D19" s="29">
         <v>1028</v>
@@ -55102,8 +55105,8 @@
       <c r="B20" s="20">
         <v>1908446147</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>48</v>
+      <c r="C20" s="20">
+        <v>0</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -55150,8 +55153,8 @@
       <c r="B21" s="20">
         <v>1908446148</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>44</v>
+      <c r="C21" s="20">
+        <v>30514</v>
       </c>
       <c r="D21" s="29">
         <v>30514</v>
@@ -55200,8 +55203,8 @@
       <c r="B22" s="20">
         <v>1908446149</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>32</v>
+      <c r="C22" s="34">
+        <v>0</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
@@ -55246,8 +55249,8 @@
       <c r="B23" s="20">
         <v>1908446150</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>33</v>
+      <c r="C23" s="20">
+        <v>0</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="30"/>
@@ -55292,8 +55295,8 @@
       <c r="B24" s="20">
         <v>1908446151</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>34</v>
+      <c r="C24" s="20">
+        <v>16345</v>
       </c>
       <c r="D24" s="29">
         <v>16345</v>
@@ -55342,8 +55345,8 @@
       <c r="B25" s="20">
         <v>1908446152</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>35</v>
+      <c r="C25" s="20">
+        <v>0</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
@@ -55388,8 +55391,8 @@
       <c r="B26" s="20">
         <v>1908446153</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>45</v>
+      <c r="C26" s="36">
+        <v>18195</v>
       </c>
       <c r="D26" s="29">
         <v>17990</v>
@@ -58988,9 +58991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60605,9 +60608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60670,7 +60673,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
